--- a/Permasalahan DAS Pentung.xlsx
+++ b/Permasalahan DAS Pentung.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IRMA YN\UGM\SEMESTER 7\PENGELOLAN LINGKUNGAN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\BLOK\PL\TUGAS\Pak Langgeng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCDC06B-7CDD-4CF4-8749-8F866A4D6CAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEC514B-3860-46BC-A044-84D29828DC03}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{11E3CA36-6EAC-4CF0-8F22-2EB46CF763E9}"/>
+    <workbookView xWindow="-10185" yWindow="5430" windowWidth="24600" windowHeight="14055" firstSheet="2" activeTab="5" xr2:uid="{11E3CA36-6EAC-4CF0-8F22-2EB46CF763E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Langgeng" sheetId="1" r:id="rId1"/>
+    <sheet name="Target" sheetId="3" r:id="rId2"/>
+    <sheet name="Tommy" sheetId="2" r:id="rId3"/>
+    <sheet name="Permasalahan DAS" sheetId="4" r:id="rId4"/>
+    <sheet name="Isu Strategis" sheetId="5" r:id="rId5"/>
+    <sheet name="Target Isu" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="128">
   <si>
     <t>No</t>
   </si>
@@ -63,9 +68,6 @@
     <t>Isu Pokok</t>
   </si>
   <si>
-    <t>Sumber daya air</t>
-  </si>
-  <si>
     <t>Saat musim kemarau, tidak terdapat aliran permukaan. Masyarakat mengandalkan air dari mata air dan sumur bor dengan kedalaman lebih dari 50 meter. Masyarakat juga terkadang juga membeli tangki air bersih yang dikirim dari Piyungan.</t>
   </si>
   <si>
@@ -73,9 +75,6 @@
   </si>
   <si>
     <t>Erosi/longsor</t>
-  </si>
-  <si>
-    <t>Sumber daya lahan</t>
   </si>
   <si>
     <r>
@@ -123,12 +122,330 @@
   <si>
     <t>Target</t>
   </si>
+  <si>
+    <t>Kekeringan</t>
+  </si>
+  <si>
+    <t>Menghambat pertumbuhan tanaman</t>
+  </si>
+  <si>
+    <t>kebutuhan lahan</t>
+  </si>
+  <si>
+    <t>Kemiskinan</t>
+  </si>
+  <si>
+    <t>Pertumbuhan penduduk</t>
+  </si>
+  <si>
+    <t>Belum optimalnya pengelolaan dan promosi obyek wisata.</t>
+  </si>
+  <si>
+    <t>Masih terdapat banyak pengangguran</t>
+  </si>
+  <si>
+    <t>Pertumbuhan penduduk meningkat dari tahun ke tahun</t>
+  </si>
+  <si>
+    <t>Rencana Kerja Kecamatan Patuk 2019</t>
+  </si>
+  <si>
+    <t>Isu-isu PB</t>
+  </si>
+  <si>
+    <t>Karakteristik Wilayah</t>
+  </si>
+  <si>
+    <t>Keterkaitan antar isu PB</t>
+  </si>
+  <si>
+    <t>Tingkat pentingnya potensi dampak</t>
+  </si>
+  <si>
+    <t>Keterkaitan dengan materi muatan Kebijakan, Rencana, dan/atau Program</t>
+  </si>
+  <si>
+    <t>Muatan RPPLH</t>
+  </si>
+  <si>
+    <t>Hasil KLHS hierarki di atasnya yang berdekatan</t>
+  </si>
+  <si>
+    <t>Unsur kriteria strategis (Pasal 5 ayat 1 PP 46 Tahun 2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belum optimalnya pengelolaan dan promosi obyek wisata. </t>
+  </si>
+  <si>
+    <t>Masih adanya gap antara rencana peningkatan wisata dengan aturan tata ruang  yang sedang berlaku (Rencana Tata Ruang Wilayah Kabupaten Gunungkidul).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Masih terbatasnya sumber daya manusia yang terampil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masih minimnya anggaran yang dialokasikan ke desa.  </t>
+  </si>
+  <si>
+    <t>Rencana Kerja Kecamatan Patuk 2021</t>
+  </si>
+  <si>
+    <t>Rencana Kerja Kecamatan Patuk 2022</t>
+  </si>
+  <si>
+    <t>Rencana Kerja Kecamatan Patuk 2023</t>
+  </si>
+  <si>
+    <t>Kekeringan sumberdaya air bersih</t>
+  </si>
+  <si>
+    <t>Kekeringan sumberdaya air untuk lahan pertanian</t>
+  </si>
+  <si>
+    <t>kebutuhan domestik</t>
+  </si>
+  <si>
+    <t>pertumbuhan penduduk</t>
+  </si>
+  <si>
+    <t>sumbernya hanya dari mata air</t>
+  </si>
+  <si>
+    <t>Kelangkaan air bersih</t>
+  </si>
+  <si>
+    <t>Membeli tangki, mengebor sumur dengan kedalaman &gt;150 m</t>
+  </si>
+  <si>
+    <t>kebutuhan air untuk pertanian</t>
+  </si>
+  <si>
+    <t>perubahan penggunaan lahan</t>
+  </si>
+  <si>
+    <t>kondisi fisik lahan tidak mampu menampung air permukaan</t>
+  </si>
+  <si>
+    <t>Saat kemarau tidak ada air permukaan</t>
+  </si>
+  <si>
+    <t>Menunggu musim hujan</t>
+  </si>
+  <si>
+    <t>erosi dan longsor</t>
+  </si>
+  <si>
+    <t>kondisi aspek fisik bentang lahan (tanah tipis, kemiringan, curah hujan tinggi)</t>
+  </si>
+  <si>
+    <t>perubahan penggunaan lahan dan pengolahan lahan secara intensif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">penipisan tanah </t>
+  </si>
+  <si>
+    <t>lahan pertanian tidak produktif saat musim kemarau</t>
+  </si>
+  <si>
+    <t>sedikitnya penduduk usia produktif</t>
+  </si>
+  <si>
+    <t>yg mempercepat/memperburuk</t>
+  </si>
+  <si>
+    <t>kondisi lahan pertanian hanya bisa diolah saat musim hujan</t>
+  </si>
+  <si>
+    <t>Pengangguran &amp; kemiskinan</t>
+  </si>
+  <si>
+    <t>Pendapatan dari hasil pertanian menurun &amp; pencemaran lingkungan</t>
+  </si>
+  <si>
+    <t>Optimalisasi lahan pertanian, Alih profesi dari pertanian ke nonpertanian</t>
+  </si>
+  <si>
+    <t>f.driver</t>
+  </si>
+  <si>
+    <t>Aksesibiltas, sarana dan prasarana</t>
+  </si>
+  <si>
+    <t>Jumlah wisatawan yang banyak</t>
+  </si>
+  <si>
+    <t>Kondisi lingkungan terawat dengan baik untuk menjaga nilai dari jasa ekosistem</t>
+  </si>
+  <si>
+    <t>Perubahan morfologi</t>
+  </si>
+  <si>
+    <t>Membuat terasering dan pembuatan tanggul</t>
+  </si>
+  <si>
+    <t>Menjaga kelestarian lingkungan yang ada di tempat wisata</t>
+  </si>
+  <si>
+    <t>Sasaran Indikator Program Rencana Pemanfaatan dan/atau Pencadangan Sumberdaya Alam</t>
+  </si>
+  <si>
+    <t>Sasaran</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indikator</t>
+  </si>
+  <si>
+    <t>Instansi Pelaksana</t>
+  </si>
+  <si>
+    <t>Isu strategis</t>
+  </si>
+  <si>
+    <t>Kekeringan lahan pertanian</t>
+  </si>
+  <si>
+    <t>Penurunan kualitas lahan akibat erosi dan longsor</t>
+  </si>
+  <si>
+    <t>Penurunan sumber air bersih untuk kebutuhan domestik saat musim kemarau</t>
+  </si>
+  <si>
+    <t>Penurunan produksi pertanian akibat kekeringan lahan saat musim kemarau</t>
+  </si>
+  <si>
+    <t>Pengelolaan objek wisata yang belum optimal</t>
+  </si>
+  <si>
+    <t>Peningkatan jumlah mata air yang mengalir saat kemarau</t>
+  </si>
+  <si>
+    <t>Jumlah mata air yang terkonservasi</t>
+  </si>
+  <si>
+    <t>Indikator</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>Pembangunan sumur penampungan mata air</t>
+  </si>
+  <si>
+    <t>Pemeliharaan kawasan sekitar mata air</t>
+  </si>
+  <si>
+    <t>Peningkatan jumlah lahan pertanian teririgasi</t>
+  </si>
+  <si>
+    <t>Jumlah lahan irigasi</t>
+  </si>
+  <si>
+    <t>Pembangunan bendung pada sungai Pentung</t>
+  </si>
+  <si>
+    <t>Pembangunan saluran irigasi</t>
+  </si>
+  <si>
+    <t>Penurunan nilai erosi dan kejadian longsor</t>
+  </si>
+  <si>
+    <t>Tingkat erosi menurun</t>
+  </si>
+  <si>
+    <t>Penanaman kembali pada lahan pertanian tidak produktif</t>
+  </si>
+  <si>
+    <t>penurunan kejadian longsor</t>
+  </si>
+  <si>
+    <t>Penguatan lereng pada wilayah rawan longsor</t>
+  </si>
+  <si>
+    <t>penurunan jumlah pengangguran</t>
+  </si>
+  <si>
+    <t>Jumlah pengangguran</t>
+  </si>
+  <si>
+    <t>Pelatihan pengembangan UMKM</t>
+  </si>
+  <si>
+    <t>Peningkatan kesadaran pengelolaan objek wisata oleh masyarakat</t>
+  </si>
+  <si>
+    <t>Jumlah kelompok sadar wisata (Pokdarwis)</t>
+  </si>
+  <si>
+    <t>Pembentukan Pokdarwis</t>
+  </si>
+  <si>
+    <t>Pelatihan pengelolaan objek wisata</t>
+  </si>
+  <si>
+    <t>Peningkatan jumlah pengangguran saat kemarau yang mengakibatkan kemiskinan</t>
+  </si>
+  <si>
+    <t>Waktu Pelaksanaan</t>
+  </si>
+  <si>
+    <t>Lokasi</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desa Pengkok, Sebagian Desa Salam, Semoyo, dan Nglanggeran </t>
+  </si>
+  <si>
+    <t>Desa Patuk, Desa Ngoro-oro, Desa Terong, dan Desa Semoyo</t>
+  </si>
+  <si>
+    <t>Desa Pengkok, Desa Salam, Desa Ngganggeran, Desa Patuk, Desa Ngoro-oro, Desa Terong, dan Desa Semoyo</t>
+  </si>
+  <si>
+    <t>Pemerintah Desa</t>
+  </si>
+  <si>
+    <t>Dinas Pertanian Kab. Gunungkidul, Dinas Pekerjaan Umum Kab. Gunungkidul</t>
+  </si>
+  <si>
+    <t>Dinas Lingkungan Hidup, Dinas PU, BPBD</t>
+  </si>
+  <si>
+    <t>Pemerintah Desa, Dinas Koperasi dan UMKM</t>
+  </si>
+  <si>
+    <t>Dinas Pariwisata, Pemerintah Desa, Dinas Koperasi dan UMKM</t>
+  </si>
+  <si>
+    <t>Penurunan jumlah pengangguran</t>
+  </si>
+  <si>
+    <t>Target (tahun)</t>
+  </si>
+  <si>
+    <t>Jumlah mata air yang terkonservasi (titik)</t>
+  </si>
+  <si>
+    <t>Jumlah lahan irigasi (ha)</t>
+  </si>
+  <si>
+    <t>Tingkat erosi menurun (ton/tahun)</t>
+  </si>
+  <si>
+    <t>Penurunan kejadian longsor (kejadian/tahun)</t>
+  </si>
+  <si>
+    <t>Jumlah pengangguran (jiwa)</t>
+  </si>
+  <si>
+    <t>Jumlah kelompok sadar wisata (Pokdarwis) (kelompok)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +475,43 @@
       <color rgb="FF000000"/>
       <name val="Calibri  "/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -167,7 +521,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -190,11 +544,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -229,6 +609,130 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -544,28 +1048,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE924921-28AF-49A2-9F08-557679F33967}">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="3" max="3" width="45.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
+    <row r="2" spans="1:5" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -576,132 +1081,1368 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="89.25" customHeight="1">
+    <row r="3" spans="1:5" ht="89.25" customHeight="1">
       <c r="B3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="6" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:8" ht="143.25">
+    <row r="5" spans="1:5" ht="143.25">
       <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="207" customHeight="1">
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+    </row>
+    <row r="7" spans="1:5">
+      <c r="B7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="B8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="60">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="207" customHeight="1">
-      <c r="B6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="60">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10" t="s">
+      <c r="D25" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="F25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="G25" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="H25" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
+    </row>
+    <row r="26" spans="1:8" ht="60">
+      <c r="A26" s="1">
         <v>1</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
+      <c r="B26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="30">
+      <c r="A27" s="1">
         <v>2</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
+      <c r="B27" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="45">
+      <c r="A28" s="1">
         <v>3</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="45" customHeight="1">
+      <c r="A29" s="15">
+        <v>4</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E29" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="H29" s="17"/>
+    </row>
+    <row r="30" spans="1:8" ht="45">
+      <c r="A30" s="8">
+        <v>5</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="17"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="28.5">
-      <c r="B21" s="3" t="s">
+    <row r="35" spans="2:2" ht="28.5">
+      <c r="B35" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="28.5">
-      <c r="B22" s="3" t="s">
+    <row r="36" spans="2:2" ht="28.5">
+      <c r="B36" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="28.5">
-      <c r="B23" s="3" t="s">
+    <row r="37" spans="2:2" ht="28.5">
+      <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="28.5">
-      <c r="B24" s="3" t="s">
+    <row r="38" spans="2:2" ht="28.5">
+      <c r="B38" s="3" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B19C4B4A-0943-4DB4-92F8-27FBF546B0ED}">
+  <dimension ref="A2:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>6</v>
+      </c>
+      <c r="J4" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:I3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1E421E-310E-4947-9EF3-35D4A1222D7D}">
+  <dimension ref="A2:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+    </row>
+    <row r="3" spans="1:8" ht="60">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317E2DEF-D456-449A-BD5A-A4990E01CA19}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="32" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="32" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="32" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" style="32" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" s="28" customFormat="1" ht="60">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="75">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="75">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G6" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="90">
+      <c r="A7" s="15">
+        <v>4</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="105">
+      <c r="A8" s="30">
+        <v>5</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32DA7C2-0C34-463B-B390-5885D2540189}">
+  <dimension ref="A3:N14"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="40.85546875" customWidth="1"/>
+    <col min="7" max="12" width="3.7109375" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:14" s="46" customFormat="1">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3" s="48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="46" customFormat="1">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="45">
+        <v>5</v>
+      </c>
+      <c r="H4" s="45">
+        <v>10</v>
+      </c>
+      <c r="I4" s="45">
+        <v>15</v>
+      </c>
+      <c r="J4" s="45">
+        <v>20</v>
+      </c>
+      <c r="K4" s="45">
+        <v>25</v>
+      </c>
+      <c r="L4" s="45">
+        <v>30</v>
+      </c>
+      <c r="M4" s="43"/>
+      <c r="N4" s="49"/>
+    </row>
+    <row r="5" spans="1:14" ht="30" customHeight="1">
+      <c r="A5" s="38">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5" s="52" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+    </row>
+    <row r="7" spans="1:14" ht="30" customHeight="1">
+      <c r="A7" s="38">
+        <v>2</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N7" s="52" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+    </row>
+    <row r="9" spans="1:14" ht="30" customHeight="1">
+      <c r="A9" s="38">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="N9" s="52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="30" customHeight="1">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+    </row>
+    <row r="11" spans="1:14" ht="96.75" customHeight="1">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="30" customHeight="1">
+      <c r="A12" s="38">
+        <v>5</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="N12" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="54" customHeight="1">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="J13" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="N14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="36">
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="M9:M10"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C6D196-E64E-422E-BBB2-908F9032F244}">
+  <dimension ref="A3:K13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" customWidth="1"/>
+    <col min="4" max="4" width="45.5703125" customWidth="1"/>
+    <col min="5" max="5" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:11">
+      <c r="A3" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="45">
+        <v>5</v>
+      </c>
+      <c r="G4" s="45">
+        <v>10</v>
+      </c>
+      <c r="H4" s="45">
+        <v>15</v>
+      </c>
+      <c r="I4" s="45">
+        <v>20</v>
+      </c>
+      <c r="J4" s="45">
+        <v>25</v>
+      </c>
+      <c r="K4" s="45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="50">
+        <v>5</v>
+      </c>
+      <c r="G5" s="50">
+        <v>9</v>
+      </c>
+      <c r="H5" s="50">
+        <v>15</v>
+      </c>
+      <c r="I5" s="50">
+        <v>19</v>
+      </c>
+      <c r="J5" s="50">
+        <v>23</v>
+      </c>
+      <c r="K5" s="50">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="38">
+        <v>2</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F7" s="50">
+        <v>15</v>
+      </c>
+      <c r="G7" s="50">
+        <v>30</v>
+      </c>
+      <c r="H7" s="50">
+        <v>50</v>
+      </c>
+      <c r="I7" s="50">
+        <v>65</v>
+      </c>
+      <c r="J7" s="50">
+        <v>80</v>
+      </c>
+      <c r="K7" s="50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="39"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="38">
+        <v>3</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="37">
+        <v>30</v>
+      </c>
+      <c r="G9" s="37">
+        <v>25</v>
+      </c>
+      <c r="H9" s="37">
+        <v>20</v>
+      </c>
+      <c r="I9" s="37">
+        <v>15</v>
+      </c>
+      <c r="J9" s="37">
+        <v>15</v>
+      </c>
+      <c r="K9" s="37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30">
+      <c r="A10" s="39"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="37">
+        <v>10</v>
+      </c>
+      <c r="G10" s="37">
+        <v>8</v>
+      </c>
+      <c r="H10" s="37">
+        <v>7</v>
+      </c>
+      <c r="I10" s="37">
+        <v>6</v>
+      </c>
+      <c r="J10" s="37">
+        <v>4</v>
+      </c>
+      <c r="K10" s="37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="38">
+        <v>5</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="50">
+        <v>2</v>
+      </c>
+      <c r="G12" s="50">
+        <v>4</v>
+      </c>
+      <c r="H12" s="50">
+        <v>5</v>
+      </c>
+      <c r="I12" s="50">
+        <v>6</v>
+      </c>
+      <c r="J12" s="50">
+        <v>7</v>
+      </c>
+      <c r="K12" s="50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="39"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>